--- a/Product_details.xlsx
+++ b/Product_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12945" windowHeight="6555" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16236" windowHeight="6756" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Customer_Details" sheetId="4" r:id="rId4"/>
     <sheet name="Customer_Details1" sheetId="5" r:id="rId5"/>
+    <sheet name="Customer_Details11" sheetId="6" r:id="rId6"/>
+    <sheet name="Customer_Details12" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:P22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Product_id</t>
   </si>
@@ -76,12 +78,22 @@
   </si>
   <si>
     <t>9085654009</t>
+  </si>
+  <si>
+    <t>HemaLatha</t>
+  </si>
+  <si>
+    <t>SaruLatha</t>
+  </si>
+  <si>
+    <t>6383869428</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,14 +435,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -463,7 +475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -496,7 +508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -508,7 +520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -518,12 +530,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,18 +577,108 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>